--- a/biology/Zoologie/Eurybia_dardus/Eurybia_dardus.xlsx
+++ b/biology/Zoologie/Eurybia_dardus/Eurybia_dardus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurybia dardus est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Eurybia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurybia dardus a été décrit par Johan Christian Fabricius en 1787 sous le nom de Papilio dardus[1].
-Sous-espèces
-Eurybia dardus dardus; présent au Surinam, en Guyana et en Guyane
-Eurybia dardus annulata Stichel, 1910; présent en Colombie, en Équateur et au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia dardus a été décrit par Johan Christian Fabricius en 1787 sous le nom de Papilio dardus.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il se nomme Dardus Underleaf en anglais[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurybia dardus dardus; présent au Surinam, en Guyana et en Guyane
+Eurybia dardus annulata Stichel, 1910; présent en Colombie, en Équateur et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurybia dardus est de taille moyenne avec une envergure variant de 38 mm à 47 mm, les mâles étant plus petits que les femelles[3]. Le dessus est de couleur marron clair avec aux antérieures un gros ocelle noir cerclé d'orange et une ligne submarginale de discrets ocelles foncés cerclés de jaune orangé, et aux postérieures la même ligne submarginale d'ocelles foncés cerclés de jaune orangé.
-Le revers est plus clair avec la même ornementation.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Dardus Underleaf en anglais.
 </t>
         </is>
       </c>
@@ -604,12 +623,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia dardus est de taille moyenne avec une envergure variant de 38 mm à 47 mm, les mâles étant plus petits que les femelles. Le dessus est de couleur marron clair avec aux antérieures un gros ocelle noir cerclé d'orange et une ligne submarginale de discrets ocelles foncés cerclés de jaune orangé, et aux postérieures la même ligne submarginale d'ocelles foncés cerclés de jaune orangé.
+Le revers est plus clair avec la même ornementation.
 </t>
         </is>
       </c>
@@ -635,15 +657,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurybia_dardus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurybia_dardus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Eurybia dardus est présent dans le nord de l'Amérique du Sud, en Guyane, au Surinam, en Guyana, en Colombie, en Équateur et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale humide[2].
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia dardus est présent dans le nord de l'Amérique du Sud, en Guyane, au Surinam, en Guyana, en Colombie, en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurybia_dardus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurybia_dardus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale humide.
+</t>
         </is>
       </c>
     </row>
